--- a/notebook-tests/Seedbox/MINOKAWA - Malabon Voter Count 2022 and 2023.xlsx
+++ b/notebook-tests/Seedbox/MINOKAWA - Malabon Voter Count 2022 and 2023.xlsx
@@ -533,7 +533,7 @@
         <v>5734</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:F23" si="0">C3/$C$23</f>
+        <f t="shared" ref="D3:D23" si="0">C3/$C$23</f>
         <v>2.2214904209364044E-2</v>
       </c>
       <c r="E3" s="1">
